--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UP60067371\Documents\Seminaire Finance 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UP60067371\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C42C9-2970-42C6-BB9B-A5F9751BC06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B36F154-AD29-4B43-96A0-0245B757344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="209">
   <si>
     <t>NOM</t>
   </si>
@@ -148,12 +148,6 @@
     <t>HAMON</t>
   </si>
   <si>
-    <t>HAMOUR</t>
-  </si>
-  <si>
-    <t>Sandrine</t>
-  </si>
-  <si>
     <t>MARION</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
     <t>Sandra</t>
   </si>
   <si>
-    <t>DAMBREVILLE</t>
-  </si>
-  <si>
-    <t>Clemence</t>
-  </si>
-  <si>
     <t>DRAGON</t>
   </si>
   <si>
@@ -265,12 +253,6 @@
     <t>Frederic</t>
   </si>
   <si>
-    <t>LECUSSAN</t>
-  </si>
-  <si>
-    <t>Lorraine</t>
-  </si>
-  <si>
     <t>LEVANNIER</t>
   </si>
   <si>
@@ -406,12 +388,6 @@
     <t>LEVASSOR</t>
   </si>
   <si>
-    <t>SOYER</t>
-  </si>
-  <si>
-    <t>Pierre-Marie</t>
-  </si>
-  <si>
     <t>MELLIER</t>
   </si>
   <si>
@@ -520,9 +496,6 @@
     <t>Eugénie</t>
   </si>
   <si>
-    <t>PICAVET</t>
-  </si>
-  <si>
     <t>POZNIAK</t>
   </si>
   <si>
@@ -583,18 +556,9 @@
     <t>Cecile</t>
   </si>
   <si>
-    <t>LIEURY</t>
-  </si>
-  <si>
     <t>CARBONNEL</t>
   </si>
   <si>
-    <t>GUERRET</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>DELPIERRE</t>
   </si>
   <si>
@@ -701,13 +665,16 @@
   </si>
   <si>
     <t>ACT3</t>
+  </si>
+  <si>
+    <t>BANTEGNIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,16 +682,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1F0C8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE49EDD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CEEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -732,47 +747,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFC0E6F5"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,14 +875,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E120" totalsRowShown="0">
-  <autoFilter ref="A1:E120" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E114" totalsRowShown="0">
+  <autoFilter ref="A1:E114" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
-    <tableColumn id="3" xr3:uid="{F7A62C02-A5B2-40AB-8620-932A13DD8C94}" name="ACT1"/>
-    <tableColumn id="4" xr3:uid="{8FBCCAC3-54AD-46E5-88B6-403AB8FD7C6F}" name="ACT2"/>
-    <tableColumn id="5" xr3:uid="{2106FB71-159F-4E81-842B-7D1791D4AAFD}" name="ACT3"/>
+    <tableColumn id="3" xr3:uid="{F7A62C02-A5B2-40AB-8620-932A13DD8C94}" name="ACT1" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8FBCCAC3-54AD-46E5-88B6-403AB8FD7C6F}" name="ACT2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2106FB71-159F-4E81-842B-7D1791D4AAFD}" name="ACT3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,13 +1237,13 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1167,13 +1254,13 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1184,48 +1271,48 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
+      <c r="D5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,13 +1322,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1252,13 +1339,13 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1269,13 +1356,13 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1286,14 +1373,14 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,13 +1390,13 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1320,13 +1407,13 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1337,13 +1424,13 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1354,13 +1441,13 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1371,13 +1458,13 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1388,13 +1475,13 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1405,48 +1492,48 @@
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
+      <c r="C18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
+        <v>195</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,14 +1543,14 @@
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,14 +1560,14 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,13 +1577,13 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1507,14 +1594,14 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,13 +1611,13 @@
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1541,14 +1628,14 @@
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#N/A</v>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,14 +1645,14 @@
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#N/A</v>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,13 +1662,13 @@
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1592,14 +1679,14 @@
       <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#N/A</v>
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,14 +1696,14 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,14 +1713,14 @@
       <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1643,13 +1730,13 @@
       <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1660,14 +1747,14 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#N/A</v>
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1677,13 +1764,13 @@
       <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1694,14 +1781,14 @@
       <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1711,14 +1798,14 @@
       <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,13 +1815,13 @@
       <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1745,14 +1832,14 @@
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="e">
-        <v>#N/A</v>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1762,13 +1849,13 @@
       <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1777,50 +1864,50 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#N/A</v>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#N/A</v>
+      <c r="C41" s="5">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1830,14 +1917,14 @@
       <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1847,14 +1934,14 @@
       <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1864,13 +1951,13 @@
       <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1881,14 +1968,14 @@
       <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#N/A</v>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,14 +1985,14 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
+      <c r="C46" s="6">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1915,14 +2002,14 @@
       <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1930,66 +2017,66 @@
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
         <v>86</v>
       </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#N/A</v>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2000,48 +2087,48 @@
       <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2051,47 +2138,47 @@
       <c r="B55" t="s">
         <v>98</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
         <v>100</v>
       </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="e">
-        <v>#N/A</v>
+      <c r="C56" s="5">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
         <v>102</v>
       </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2102,13 +2189,13 @@
       <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
+      <c r="C58" s="6">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2119,14 +2206,14 @@
       <c r="B59" t="s">
         <v>106</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4">
         <v>4</v>
       </c>
-      <c r="E59" t="e">
-        <v>#N/A</v>
+      <c r="E59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2134,66 +2221,66 @@
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
+        <v>204</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" t="e">
-        <v>#N/A</v>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="B62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4">
         <v>4</v>
       </c>
-      <c r="E62" t="e">
-        <v>#N/A</v>
+      <c r="E62" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63">
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2202,967 +2289,865 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64" t="e">
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4">
         <v>4</v>
       </c>
-      <c r="E65" t="e">
-        <v>#N/A</v>
+      <c r="E65" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+        <v>197</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
+        <v>199</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" t="e">
-        <v>#N/A</v>
+        <v>117</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
+        <v>119</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" t="e">
-        <v>#N/A</v>
+        <v>3</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" t="e">
-        <v>#N/A</v>
+        <v>3</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
+        <v>79</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+      <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72">
-        <v>1</v>
+      <c r="E72" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
+        <v>125</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="e">
-        <v>#N/A</v>
+        <v>127</v>
+      </c>
+      <c r="C75" s="6">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
+        <v>129</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" t="e">
-        <v>#N/A</v>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
+        <v>52</v>
+      </c>
+      <c r="C79" s="6">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
+        <v>133</v>
+      </c>
+      <c r="C80" s="6">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4">
         <v>4</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="e">
-        <v>#N/A</v>
+        <v>135</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="C82" s="6">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83" t="e">
-        <v>#N/A</v>
+        <v>138</v>
+      </c>
+      <c r="C83" s="6">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
+        <v>143</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="e">
-        <v>#N/A</v>
+        <v>145</v>
+      </c>
+      <c r="C87" s="6">
+        <v>3</v>
+      </c>
+      <c r="D87" s="4">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
+        <v>147</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90" t="e">
-        <v>#N/A</v>
+        <v>150</v>
+      </c>
+      <c r="C90" s="6">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91">
+        <v>33</v>
+      </c>
+      <c r="C91" s="6">
+        <v>3</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C93" s="6">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="e">
-        <v>#N/A</v>
+        <v>157</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-      <c r="E96" t="e">
-        <v>#N/A</v>
+        <v>33</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97">
+        <v>162</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="4">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
+        <v>168</v>
+      </c>
+      <c r="C100" s="6">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
         <v>170</v>
       </c>
-      <c r="B101" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
+      <c r="C101" s="6">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
+        <v>93</v>
+      </c>
+      <c r="C102" s="6">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="E102" t="e">
-        <v>#N/A</v>
+      <c r="E102" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
+        <v>173</v>
+      </c>
+      <c r="C103" s="6">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="e">
-        <v>#N/A</v>
+        <v>175</v>
+      </c>
+      <c r="C104" s="6">
+        <v>3</v>
+      </c>
+      <c r="D104" s="4">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="C106" s="6">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" t="e">
-        <v>#N/A</v>
+        <v>201</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="e">
-        <v>#N/A</v>
+        <v>180</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
+        <v>69</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110" t="e">
-        <v>#N/A</v>
+        <v>69</v>
+      </c>
+      <c r="C110" s="6">
+        <v>3</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
+        <v>184</v>
+      </c>
+      <c r="C111" s="6">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4">
         <v>5</v>
       </c>
-      <c r="E111">
-        <v>2</v>
+      <c r="E111" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" t="s">
-        <v>215</v>
-      </c>
-      <c r="D113" t="s">
-        <v>215</v>
-      </c>
-      <c r="E113" t="e">
-        <v>#N/A</v>
+        <v>187</v>
+      </c>
+      <c r="C113" s="6">
+        <v>3</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>194</v>
-      </c>
-      <c r="B116" t="s">
-        <v>73</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>195</v>
-      </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
+        <v>189</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2</v>
+      </c>
+      <c r="D114" s="4">
         <v>5</v>
       </c>
-      <c r="E117" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>197</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" t="s">
-        <v>199</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>4</v>
-      </c>
-      <c r="E119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120">
+      <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3175,21 +3160,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3351,10 +3321,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3376,19 +3371,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UP60067371\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B36F154-AD29-4B43-96A0-0245B757344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ABA9B4-B5E1-7D46-80AD-DCCAEF5B5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="16" r:id="rId1"/>
@@ -1207,13 +1207,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>137</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>144</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>146</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>174</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>185</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>188</v>
       </c>
@@ -3160,6 +3160,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3321,12 +3327,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3337,6 +3337,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3354,22 +3370,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
   <ds:schemaRefs>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ABA9B4-B5E1-7D46-80AD-DCCAEF5B5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C626669-A32F-4F4A-BE0D-86910C66ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="215">
   <si>
     <t>NOM</t>
   </si>
@@ -668,6 +668,24 @@
   </si>
   <si>
     <t>BANTEGNIE</t>
+  </si>
+  <si>
+    <t>Laetitia</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>MAJAJD</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
   </si>
 </sst>
 </file>
@@ -875,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E114" totalsRowShown="0">
-  <autoFilter ref="A1:E114" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E116" totalsRowShown="0">
+  <autoFilter ref="A1:E116" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1205,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2949,16 +2967,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="6">
-        <v>3</v>
-      </c>
-      <c r="D103" s="4">
-        <v>2</v>
+        <v>210</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2966,16 +2984,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
       </c>
       <c r="D104" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2983,84 +3001,84 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" s="5">
-        <v>2</v>
-      </c>
-      <c r="D105" s="4">
-        <v>5</v>
+        <v>212</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="E105" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C106" s="6">
         <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>5</v>
       </c>
       <c r="E107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="5">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="C108" s="6">
+        <v>3</v>
       </c>
       <c r="D108" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3068,33 +3086,33 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="6">
-        <v>3</v>
+        <v>180</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2</v>
       </c>
       <c r="D110" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
-      </c>
-      <c r="C111" s="6">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3102,52 +3120,86 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C112" s="6">
+        <v>3</v>
       </c>
       <c r="D112" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C113" s="6">
         <v>3</v>
       </c>
       <c r="D113" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="4">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>188</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="5">
-        <v>2</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="C116" s="5">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3160,9 +3212,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3328,26 +3383,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3371,9 +3415,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C626669-A32F-4F4A-BE0D-86910C66ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A81AE-5D28-2142-A985-4EA7D5310EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="211">
   <si>
     <t>NOM</t>
   </si>
@@ -674,18 +674,6 @@
   </si>
   <si>
     <t>DAVID</t>
-  </si>
-  <si>
-    <t>MAJAJD</t>
-  </si>
-  <si>
-    <t>Ines</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
   </si>
 </sst>
 </file>
@@ -893,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E116" totalsRowShown="0">
-  <autoFilter ref="A1:E116" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E115" totalsRowShown="0">
+  <autoFilter ref="A1:E115" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1223,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3001,118 +2989,118 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>214</v>
+        <v>175</v>
+      </c>
+      <c r="C105" s="6">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>4</v>
       </c>
       <c r="E105" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="6">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
       </c>
       <c r="D106" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" s="5">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="C107" s="6">
+        <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="6">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E108" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="5">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
       </c>
       <c r="D110" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="3">
-        <v>1</v>
+      <c r="C111" s="6">
+        <v>3</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3120,16 +3108,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
       </c>
       <c r="D112" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3137,33 +3125,33 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="6">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
       </c>
       <c r="D113" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="C114" s="6">
+        <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -3171,35 +3159,18 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="6">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" s="5">
-        <v>2</v>
-      </c>
-      <c r="D116" s="4">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3212,15 +3183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3382,6 +3344,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3389,14 +3360,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3410,6 +3373,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A81AE-5D28-2142-A985-4EA7D5310EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AAF69F-4400-AE48-BABF-8CC4C0077CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="214">
   <si>
     <t>NOM</t>
   </si>
@@ -674,6 +674,15 @@
   </si>
   <si>
     <t>DAVID</t>
+  </si>
+  <si>
+    <t>MAJAJD</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -881,8 +890,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E115" totalsRowShown="0">
-  <autoFilter ref="A1:E115" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E116" totalsRowShown="0">
+  <autoFilter ref="A1:E116" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1211,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2921,33 +2930,33 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
-      </c>
-      <c r="C101" s="6">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
       <c r="D102" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2955,16 +2964,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>203</v>
+        <v>171</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="6">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4">
+        <v>5</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2972,16 +2981,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="6">
-        <v>3</v>
-      </c>
-      <c r="D104" s="4">
-        <v>2</v>
+        <v>210</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2989,16 +2998,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C105" s="6">
         <v>3</v>
       </c>
       <c r="D105" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3006,101 +3015,101 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="5">
-        <v>2</v>
+        <v>175</v>
+      </c>
+      <c r="C106" s="6">
+        <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>177</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>178</v>
       </c>
-      <c r="C107" s="6">
-        <v>3</v>
-      </c>
-      <c r="D107" s="4">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C108" s="6">
+        <v>3</v>
+      </c>
+      <c r="D108" s="4">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>200</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="5">
-        <v>2</v>
-      </c>
-      <c r="D109" s="4">
-        <v>4</v>
-      </c>
       <c r="E109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2</v>
       </c>
       <c r="D110" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="6">
-        <v>3</v>
+      <c r="C111" s="3">
+        <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3108,16 +3117,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
       </c>
       <c r="D112" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3125,33 +3134,33 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C113" s="6">
+        <v>3</v>
       </c>
       <c r="D113" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
-      </c>
-      <c r="C114" s="6">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
       </c>
       <c r="D114" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -3159,18 +3168,35 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>188</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="5">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4">
+      <c r="C116" s="5">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3183,6 +3209,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3344,15 +3379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3360,6 +3386,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3373,14 +3407,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AAF69F-4400-AE48-BABF-8CC4C0077CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2809FE9-A27E-734A-985E-1CF952916F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>NOM</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>Ines</t>
-  </si>
-  <si>
-    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2935,15 +2932,9 @@
       <c r="B101" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -3209,12 +3200,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3380,15 +3368,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3412,17 +3411,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2809FE9-A27E-734A-985E-1CF952916F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B3350-9A76-434D-A908-A208FCC2219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="211">
   <si>
     <t>NOM</t>
   </si>
@@ -674,12 +674,6 @@
   </si>
   <si>
     <t>DAVID</t>
-  </si>
-  <si>
-    <t>MAJAJD</t>
-  </si>
-  <si>
-    <t>Ines</t>
   </si>
 </sst>
 </file>
@@ -887,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E116" totalsRowShown="0">
-  <autoFilter ref="A1:E116" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E115" totalsRowShown="0">
+  <autoFilter ref="A1:E115" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1217,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2927,27 +2921,33 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C101" s="6">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
       <c r="D102" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="6">
-        <v>3</v>
-      </c>
-      <c r="D103" s="4">
-        <v>5</v>
+        <v>210</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>203</v>
+        <v>172</v>
+      </c>
+      <c r="B104" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="6">
+        <v>3</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" s="6">
         <v>3</v>
       </c>
       <c r="D105" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3006,101 +3006,101 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="6">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2</v>
       </c>
       <c r="D106" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" s="5">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="C107" s="6">
+        <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="6">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E108" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="5">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
       </c>
       <c r="D110" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="3">
-        <v>1</v>
+      <c r="C111" s="6">
+        <v>3</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3108,16 +3108,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
       </c>
       <c r="D112" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3125,33 +3125,33 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="6">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
       </c>
       <c r="D113" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="C114" s="6">
+        <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -3159,35 +3159,18 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="6">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2</v>
       </c>
       <c r="D115" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116" t="s">
-        <v>189</v>
-      </c>
-      <c r="C116" s="5">
-        <v>2</v>
-      </c>
-      <c r="D116" s="4">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1">
         <v>2</v>
       </c>
     </row>

--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B3350-9A76-434D-A908-A208FCC2219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66710887-F40C-6D48-8CF3-84BFDBA52D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
   <si>
     <t>NOM</t>
   </si>
@@ -674,6 +674,15 @@
   </si>
   <si>
     <t>DAVID</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>Pierucci</t>
+  </si>
+  <si>
+    <t>TRESARRIEU-BESINCQ</t>
   </si>
 </sst>
 </file>
@@ -881,8 +890,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E115" totalsRowShown="0">
-  <autoFilter ref="A1:E115" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E117" totalsRowShown="0">
+  <autoFilter ref="A1:E117" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1211,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,33 +1366,33 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
+        <v>133</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1391,16 +1400,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1408,33 +1417,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1442,50 +1451,50 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1493,44 +1502,44 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>203</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>203</v>
@@ -1544,16 +1553,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1561,16 +1570,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1578,33 +1587,33 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1612,16 +1621,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1629,50 +1638,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
       </c>
       <c r="D26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1680,16 +1689,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1697,50 +1706,50 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
       </c>
       <c r="D30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1748,16 +1757,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1765,16 +1774,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1782,50 +1791,50 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
       </c>
       <c r="D34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
       </c>
       <c r="D35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
       </c>
       <c r="D36" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1833,16 +1842,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -1850,16 +1859,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -1867,16 +1876,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
       <c r="D39" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1884,16 +1893,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1901,16 +1910,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -1918,50 +1927,50 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="5">
         <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -1969,33 +1978,33 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="6">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2003,16 +2012,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3</v>
       </c>
       <c r="D47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2020,33 +2029,33 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="6">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
       </c>
       <c r="D48" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
       </c>
       <c r="D49" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2054,16 +2063,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2071,16 +2080,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -2088,33 +2097,33 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
-      <c r="D53" s="8">
-        <v>1</v>
+      <c r="D53" s="4">
+        <v>3</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2122,50 +2131,50 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="6">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
       </c>
       <c r="D54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
+        <v>50</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8">
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2173,50 +2182,50 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
       </c>
       <c r="D57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="6">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
       </c>
       <c r="D58" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="6">
         <v>3</v>
       </c>
       <c r="D59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2224,33 +2233,33 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>203</v>
+        <v>106</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
-        <v>3</v>
+        <v>204</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2258,16 +2267,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="5">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
       </c>
       <c r="D62" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -2275,16 +2284,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -2292,16 +2301,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C64" s="5">
         <v>2</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -2309,16 +2318,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -2326,27 +2335,27 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>203</v>
+        <v>60</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>203</v>
@@ -2360,16 +2369,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="6">
-        <v>3</v>
-      </c>
-      <c r="D68" s="4">
-        <v>5</v>
+        <v>199</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2377,33 +2386,33 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3</v>
       </c>
       <c r="D69" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C70" s="5">
         <v>2</v>
       </c>
       <c r="D70" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -2411,7 +2420,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2420,126 +2429,126 @@
         <v>2</v>
       </c>
       <c r="D71" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C72" s="5">
         <v>2</v>
       </c>
       <c r="D72" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C74" s="5">
         <v>2</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="6">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
       </c>
       <c r="D75" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>128</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
         <v>4</v>
       </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="11">
-        <v>1</v>
-      </c>
-      <c r="D77" s="12">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>130</v>
-      </c>
-      <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4">
-        <v>2</v>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -2547,16 +2556,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="6">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2564,16 +2573,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C80" s="6">
         <v>3</v>
       </c>
       <c r="D80" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2581,50 +2590,50 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3</v>
       </c>
       <c r="D81" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="6">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C83" s="6">
         <v>3</v>
       </c>
       <c r="D83" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2632,16 +2641,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="6">
         <v>3</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2649,50 +2658,50 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="5">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="C85" s="6">
+        <v>3</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2</v>
       </c>
       <c r="D86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="6">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
       </c>
       <c r="D87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2700,33 +2709,33 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="5">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="C88" s="6">
+        <v>3</v>
       </c>
       <c r="D88" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
       </c>
       <c r="D89" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
@@ -2734,27 +2743,27 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="6">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C91" s="6">
         <v>3</v>
@@ -2763,55 +2772,55 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="5">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C92" s="6">
+        <v>3</v>
       </c>
       <c r="D92" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="6">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2</v>
       </c>
       <c r="D93" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C94" s="6">
+        <v>3</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -2819,50 +2828,50 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" s="5">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
       </c>
       <c r="D97" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -2870,50 +2879,50 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="5">
-        <v>2</v>
+        <v>211</v>
+      </c>
+      <c r="C98" s="6">
+        <v>3</v>
       </c>
       <c r="D98" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2</v>
       </c>
       <c r="D99" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C100" s="6">
-        <v>3</v>
+        <v>164</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2</v>
       </c>
       <c r="D100" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -2921,16 +2930,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
-      </c>
-      <c r="C101" s="6">
-        <v>3</v>
+        <v>166</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
       </c>
       <c r="D101" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -2938,16 +2947,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
       </c>
       <c r="D102" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2955,16 +2964,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>203</v>
+        <v>169</v>
+      </c>
+      <c r="B103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="6">
+        <v>3</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2972,16 +2981,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
       </c>
       <c r="D104" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2989,16 +2998,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="6">
-        <v>3</v>
-      </c>
-      <c r="D105" s="4">
-        <v>4</v>
+        <v>210</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3006,84 +3015,84 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="5">
-        <v>2</v>
+        <v>173</v>
+      </c>
+      <c r="C106" s="6">
+        <v>3</v>
       </c>
       <c r="D106" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C107" s="6">
         <v>3</v>
       </c>
       <c r="D107" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4">
+        <v>5</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="5">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="C109" s="6">
+        <v>3</v>
       </c>
       <c r="D109" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3091,33 +3100,33 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="6">
-        <v>3</v>
+        <v>180</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2</v>
       </c>
       <c r="D111" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" s="6">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3125,52 +3134,86 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C113" s="6">
+        <v>3</v>
       </c>
       <c r="D113" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C114" s="6">
         <v>3</v>
       </c>
       <c r="D114" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>186</v>
+      </c>
+      <c r="B116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="6">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>188</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="5">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4">
+      <c r="C117" s="5">
+        <v>2</v>
+      </c>
+      <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E117" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3183,12 +3226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3350,7 +3387,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3359,23 +3396,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3393,10 +3420,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66710887-F40C-6D48-8CF3-84BFDBA52D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD9615-F3E4-8548-8860-2F6AACE11F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>CHAMBON</t>
   </si>
   <si>
-    <t>Aurélie</t>
-  </si>
-  <si>
     <t>DUHEM</t>
   </si>
   <si>
@@ -683,6 +680,9 @@
   </si>
   <si>
     <t>TRESARRIEU-BESINCQ</t>
+  </si>
+  <si>
+    <t>Aurelie</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
-      </c>
-      <c r="E1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1298,16 +1298,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
         <v>194</v>
       </c>
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
         <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
         <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
       </c>
       <c r="C36" s="6">
         <v>3</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
         <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
         <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
       </c>
       <c r="C42" s="5">
         <v>2</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
       </c>
       <c r="C44" s="5">
         <v>2</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
         <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
       </c>
       <c r="C46" s="5">
         <v>2</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
         <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
         <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
       </c>
       <c r="C48" s="5">
         <v>2</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="6">
         <v>3</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
       </c>
       <c r="C50" s="5">
         <v>2</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
-      </c>
-      <c r="B53" t="s">
-        <v>92</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
         <v>94</v>
-      </c>
-      <c r="B54" t="s">
-        <v>95</v>
       </c>
       <c r="C54" s="5">
         <v>2</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="6">
         <v>3</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
         <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
         <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>104</v>
       </c>
       <c r="C59" s="6">
         <v>3</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
         <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
       </c>
       <c r="C60" s="6">
         <v>3</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
         <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
         <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
         <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
       </c>
       <c r="C64" s="5">
         <v>2</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6">
         <v>3</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="s">
-        <v>197</v>
-      </c>
       <c r="C67" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
         <v>198</v>
       </c>
-      <c r="B68" t="s">
-        <v>199</v>
-      </c>
       <c r="C68" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
         <v>116</v>
-      </c>
-      <c r="B69" t="s">
-        <v>117</v>
       </c>
       <c r="C69" s="6">
         <v>3</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
         <v>118</v>
-      </c>
-      <c r="B70" t="s">
-        <v>119</v>
       </c>
       <c r="C70" s="5">
         <v>2</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="5">
         <v>2</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
         <v>124</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
       </c>
       <c r="C75" s="5">
         <v>2</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
         <v>126</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
       </c>
       <c r="C76" s="6">
         <v>3</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
         <v>128</v>
-      </c>
-      <c r="B77" t="s">
-        <v>129</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="6">
         <v>3</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
         <v>132</v>
-      </c>
-      <c r="B81" t="s">
-        <v>133</v>
       </c>
       <c r="C81" s="6">
         <v>3</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
         <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>135</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="6">
         <v>3</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" t="s">
         <v>137</v>
-      </c>
-      <c r="B84" t="s">
-        <v>138</v>
       </c>
       <c r="C84" s="6">
         <v>3</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
         <v>139</v>
-      </c>
-      <c r="B85" t="s">
-        <v>140</v>
       </c>
       <c r="C85" s="6">
         <v>3</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" s="5">
         <v>2</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" t="s">
         <v>142</v>
-      </c>
-      <c r="B87" t="s">
-        <v>143</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" t="s">
         <v>144</v>
-      </c>
-      <c r="B88" t="s">
-        <v>145</v>
       </c>
       <c r="C88" s="6">
         <v>3</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
         <v>146</v>
-      </c>
-      <c r="B89" t="s">
-        <v>147</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
         <v>149</v>
-      </c>
-      <c r="B91" t="s">
-        <v>150</v>
       </c>
       <c r="C91" s="6">
         <v>3</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" s="6">
         <v>3</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" t="s">
         <v>152</v>
-      </c>
-      <c r="B93" t="s">
-        <v>153</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
         <v>154</v>
-      </c>
-      <c r="B94" t="s">
-        <v>155</v>
       </c>
       <c r="C94" s="6">
         <v>3</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
         <v>156</v>
-      </c>
-      <c r="B95" t="s">
-        <v>157</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
         <v>158</v>
-      </c>
-      <c r="B96" t="s">
-        <v>159</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="6">
         <v>3</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" t="s">
         <v>161</v>
-      </c>
-      <c r="B99" t="s">
-        <v>162</v>
       </c>
       <c r="C99" s="5">
         <v>2</v>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" t="s">
         <v>163</v>
-      </c>
-      <c r="B100" t="s">
-        <v>164</v>
       </c>
       <c r="C100" s="5">
         <v>2</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" t="s">
         <v>165</v>
-      </c>
-      <c r="B101" t="s">
-        <v>166</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" t="s">
         <v>167</v>
-      </c>
-      <c r="B102" t="s">
-        <v>168</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
         <v>169</v>
-      </c>
-      <c r="B103" t="s">
-        <v>170</v>
       </c>
       <c r="C103" s="6">
         <v>3</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="6">
         <v>3</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>171</v>
+      </c>
+      <c r="B106" t="s">
         <v>172</v>
-      </c>
-      <c r="B106" t="s">
-        <v>173</v>
       </c>
       <c r="C106" s="6">
         <v>3</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" t="s">
         <v>174</v>
-      </c>
-      <c r="B107" t="s">
-        <v>175</v>
       </c>
       <c r="C107" s="6">
         <v>3</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="5">
         <v>2</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" t="s">
         <v>177</v>
-      </c>
-      <c r="B109" t="s">
-        <v>178</v>
       </c>
       <c r="C109" s="6">
         <v>3</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
         <v>200</v>
       </c>
-      <c r="B110" t="s">
-        <v>201</v>
-      </c>
       <c r="C110" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
         <v>179</v>
-      </c>
-      <c r="B111" t="s">
-        <v>180</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" s="6">
         <v>3</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" t="s">
         <v>183</v>
-      </c>
-      <c r="B114" t="s">
-        <v>184</v>
       </c>
       <c r="C114" s="6">
         <v>3</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s">
         <v>186</v>
-      </c>
-      <c r="B116" t="s">
-        <v>187</v>
       </c>
       <c r="C116" s="6">
         <v>3</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
         <v>188</v>
-      </c>
-      <c r="B117" t="s">
-        <v>189</v>
       </c>
       <c r="C117" s="5">
         <v>2</v>
@@ -3388,18 +3388,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3421,14 +3421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3442,4 +3434,12 @@
     <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD9615-F3E4-8548-8860-2F6AACE11F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E970EA0-F1E1-6448-8B08-E8676A353B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="214">
   <si>
     <t>NOM</t>
   </si>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3003,11 +3003,11 @@
       <c r="B105" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>202</v>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3388,18 +3388,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3421,6 +3421,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3434,12 +3442,4 @@
     <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E970EA0-F1E1-6448-8B08-E8676A353B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851E303-21A0-6048-AA9D-548496EF8F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="218">
   <si>
     <t>NOM</t>
   </si>
@@ -683,6 +683,18 @@
   </si>
   <si>
     <t>Aurelie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN </t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>TANCHOUX</t>
+  </si>
+  <si>
+    <t>Helene</t>
   </si>
 </sst>
 </file>
@@ -890,8 +902,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E117" totalsRowShown="0">
-  <autoFilter ref="A1:E117" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}" name="Tableau2" displayName="Tableau2" ref="A1:E119" totalsRowShown="0">
+  <autoFilter ref="A1:E119" xr:uid="{328D138B-2800-41BA-BC29-5572F8337D60}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E6B9E32F-0696-4A66-BD0B-E963A152B532}" name="NOM"/>
     <tableColumn id="2" xr3:uid="{6ECE874A-9170-4EEB-AAD2-CC87E9977642}" name="PRENOM"/>
@@ -1220,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3015,16 +3027,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="6">
-        <v>3</v>
-      </c>
-      <c r="D106" s="4">
-        <v>2</v>
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3032,16 +3044,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="6">
-        <v>3</v>
-      </c>
-      <c r="D107" s="4">
-        <v>4</v>
+        <v>216</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3049,84 +3061,84 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" s="5">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="C108" s="6">
+        <v>3</v>
       </c>
       <c r="D108" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C109" s="6">
         <v>3</v>
       </c>
       <c r="D109" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2</v>
+      </c>
+      <c r="D110" s="4">
+        <v>5</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" s="5">
-        <v>2</v>
+        <v>177</v>
+      </c>
+      <c r="C111" s="6">
+        <v>3</v>
       </c>
       <c r="D111" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3134,33 +3146,33 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="6">
-        <v>3</v>
+        <v>179</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2</v>
       </c>
       <c r="D113" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" s="6">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
       </c>
       <c r="D114" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -3168,52 +3180,86 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3</v>
       </c>
       <c r="D115" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C116" s="6">
         <v>3</v>
       </c>
       <c r="D116" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="4">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" t="s">
+        <v>186</v>
+      </c>
+      <c r="C118" s="6">
+        <v>3</v>
+      </c>
+      <c r="D118" s="4">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>187</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="5">
-        <v>2</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E119" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3226,6 +3272,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E491BA7828B3BD4C85CD4103E13217A4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="127380258f0978ede48f606835c58703">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75d09cf0-29da-4cd0-a35c-382758ddcbf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5fa53952de1d006bee80617fd5ecb7a" ns2:_="">
     <xsd:import namespace="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
@@ -3387,22 +3448,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C4E302-81F6-422F-BC35-58C31CDA699F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3418,28 +3488,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{654F385F-B66E-400A-BA4F-065FABF0B951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DBE383-6EBD-4FBE-86A1-F0B7E386E484}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75d09cf0-29da-4cd0-a35c-382758ddcbf9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assignments.xlsx
+++ b/assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmjd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851E303-21A0-6048-AA9D-548496EF8F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFD3EE-02E0-FF4E-9FAA-703381CB4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{3BB47C29-4BB8-4473-8C76-77CF1B313392}"/>
   </bookViews>
@@ -622,9 +622,6 @@
     <t xml:space="preserve">LOIEZ  </t>
   </si>
   <si>
-    <t>LE BARON</t>
-  </si>
-  <si>
     <t>Lucie</t>
   </si>
   <si>
@@ -695,6 +692,9 @@
   </si>
   <si>
     <t>Helene</t>
+  </si>
+  <si>
+    <t>LEBARON</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3451D24-F103-4BA6-8F5C-60222ACFD345}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1248,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>205</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,10 +1316,10 @@
         <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1333,10 +1333,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
@@ -1554,10 +1554,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1565,16 +1565,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
         <v>193</v>
       </c>
-      <c r="B20" t="s">
-        <v>194</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2265,13 +2265,13 @@
         <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
         <v>195</v>
       </c>
-      <c r="B67" t="s">
-        <v>196</v>
-      </c>
       <c r="C67" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s">
         <v>197</v>
       </c>
-      <c r="B68" t="s">
-        <v>198</v>
-      </c>
       <c r="C68" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C98" s="6">
         <v>3</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
@@ -3027,16 +3027,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C106" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3044,16 +3044,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C107" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
         <v>175</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
         <v>199</v>
       </c>
-      <c r="B112" t="s">
-        <v>200</v>
-      </c>
       <c r="C112" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
